--- a/SRFROWCA/TEST/Gambia.xlsx
+++ b/SRFROWCA/TEST/Gambia.xlsx
@@ -757,9 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
